--- a/Tables/Appendix_15_2.xlsx
+++ b/Tables/Appendix_15_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,230 +464,489 @@
           <t>TMV</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TYD</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TBX</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PST</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TYO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t># Non-zero</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2886</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2859</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2838</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2654</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2782</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2896</v>
+          <t>Leverage</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>+3x</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>+2x</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+1x</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-1x</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2x</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-3x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>+3x</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>+2x</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>+1x</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-1x</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-2x</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-3x</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t># Zero</t>
+          <t># Non-zero</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>2574</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>2551</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>2532</v>
       </c>
       <c r="E3" t="n">
-        <v>243</v>
+        <v>2354</v>
       </c>
       <c r="F3" t="n">
-        <v>115</v>
+        <v>2477</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2584</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2585</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2422</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2433</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2350</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t># Zero</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1023344675579932</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2906675853585364</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1491457058825792</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1492637266588483</v>
+        <v>231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2863853563886893</v>
+        <v>108</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1003184554674826</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>113</v>
+      </c>
+      <c r="J4" t="n">
+        <v>163</v>
+      </c>
+      <c r="K4" t="n">
+        <v>152</v>
+      </c>
+      <c r="L4" t="n">
+        <v>235</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Median</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06764820732250461</v>
+        <v>0.1010375958295934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2011566507417787</v>
+        <v>0.289720404015972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1034340091021967</v>
+        <v>0.1483640903067001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1036627505183054</v>
+        <v>0.1483341484646921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1958041958041966</v>
+        <v>0.283465250615868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06617042976650057</v>
+        <v>0.09843421805751632</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3482785080657301</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1128061104486503</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05831435138387354</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1178314650174861</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1183397348460563</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2197456419711508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Minimum</t>
+          <t>Median</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.06593955894943139</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1972580859842976</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1013357899585439</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.101454176530271</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.1931745009658684</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.06391585338953673</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1769490216156278</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07710100231302842</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0441540091840314</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07076285812909358</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.08865248226950166</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1488812015588768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Maximum</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.278216770845599</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.337379441542796</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.977842530200928</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.949565450823803</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.42316128476478</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.467148473595588</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0003255748838504014</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>St Dev</t>
+          <t>Maximum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1900543147321316</v>
+        <v>4.278216770845599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3384974794720796</v>
+        <v>6.337379441542796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.205802002132427</v>
+        <v>4.977842530200928</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1807299488540803</v>
+        <v>2.949565450823803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3464551025710999</v>
+        <v>6.42316128476478</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1883730400043264</v>
+        <v>4.467148473595588</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.4548698653172</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.794821498626911</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.080854629241719</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.192513368983958</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.008652657601973</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.127433428063701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Skewness</t>
+          <t>St Dev</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.614067009953736</v>
+        <v>0.1964083294344583</v>
       </c>
       <c r="C9" t="n">
-        <v>4.986292264293785</v>
+        <v>0.3463219010102319</v>
       </c>
       <c r="D9" t="n">
-        <v>9.329029499415389</v>
+        <v>0.2125126439534815</v>
       </c>
       <c r="E9" t="n">
-        <v>5.948201999830104</v>
+        <v>0.1851224627460394</v>
       </c>
       <c r="F9" t="n">
-        <v>5.562499572146896</v>
+        <v>0.3547268629644667</v>
       </c>
       <c r="G9" t="n">
-        <v>10.18433108745741</v>
+        <v>0.1930682334760975</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.666946122389116</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.129112726221925</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.07049316813530274</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1502868792551672</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1299296509701436</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2572041472695076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>Skewness</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.561942731951497</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.119542273639877</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.447866487113149</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.119487092827096</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.719509920032593</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.30313818644868</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.11830679062187</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.94728557578976</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.894673093152975</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.342582313825936</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.127436974294898</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.8235967614185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>Kurtosis</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>135.2586132645588</v>
-      </c>
-      <c r="C10" t="n">
-        <v>52.72249127534038</v>
-      </c>
-      <c r="D10" t="n">
-        <v>156.3029772553252</v>
-      </c>
-      <c r="E10" t="n">
-        <v>65.9753499560733</v>
-      </c>
-      <c r="F10" t="n">
-        <v>60.48379088108688</v>
-      </c>
-      <c r="G10" t="n">
-        <v>154.9688037144637</v>
+      <c r="B11" t="n">
+        <v>131.4518613571392</v>
+      </c>
+      <c r="C11" t="n">
+        <v>53.70438806235877</v>
+      </c>
+      <c r="D11" t="n">
+        <v>154.0528986907353</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67.07624069694334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>61.58487468261105</v>
+      </c>
+      <c r="G11" t="n">
+        <v>155.5581983031333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>198.6396212315247</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27.919815421077</v>
+      </c>
+      <c r="J11" t="n">
+        <v>58.64870697210559</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36.13068934016481</v>
+      </c>
+      <c r="L11" t="n">
+        <v>33.71517880225338</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23.02569482403698</v>
       </c>
     </row>
   </sheetData>
